--- a/tokenizing-test-cases.xlsx
+++ b/tokenizing-test-cases.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Documents\Seneca\SDDS\cpr101\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cpr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AF7501F5-17D9-44E9-B635-1D850C3927CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF0DD59-44BE-43F3-97E0-E7AC407CEE01}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C8493-E2D8-4B27-BECE-E2904A1FFB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="9750" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example to be deleted" sheetId="2" r:id="rId1"/>
-    <sheet name="-the-name-of-your- module" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'example to be deleted'!#REF!</definedName>
@@ -291,744 +290,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Tim McKenna</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{73CDDCC5-DEF9-4198-AB6F-663FBFA75AEC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C5E57DF2-75BE-427E-B461-846D7F195E14}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{4679AE41-C1FC-42AC-AC68-EBAC777A24D9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2891D1DC-16FD-429F-AADE-260368988D34}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output or Response:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{56C701D0-649D-415A-8827-D8C01E5844B0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hover over Result and Comments for more details.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{1CFD9AEA-4F24-48EF-8683-675BA2D08F3F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Result:
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{7AB124D7-8C8A-44DD-A61F-3B2C3D2DE3F5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output or Response:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hover over Result and Comments for more details.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Result:
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output or Response:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hover over Result and Comments for more details.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Result:
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Program
 or module:</t>
@@ -1163,32 +426,12 @@
   <si>
     <t>Recommended fix: Logic should check total size of text as it is being entered during edit. Possible message: "Maximum size reached. No more input can be accepted."</t>
   </si>
-  <si>
-    <t>fundamentals</t>
-  </si>
-  <si>
-    <t>Version 1</t>
-  </si>
-  <si>
-    <t>Dong Ngo
-2023-11-27</t>
-  </si>
-  <si>
-    <t>Version 2</t>
-  </si>
-  <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
-  </si>
-  <si>
-    <t>Version 3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1206,13 +449,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1284,21 +520,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1335,24 +558,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB4B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -1565,22 +770,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1589,13 +787,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1610,10 +808,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,11 +826,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1640,98 +835,41 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -2049,194 +1187,194 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="27.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.1328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.40625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="27.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="str">
+      <c r="C1" s="29" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="18" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:8" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="63.75" customHeight="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="51">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8" ht="52" x14ac:dyDescent="0.65">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="63.75">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8" ht="65" x14ac:dyDescent="0.65">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="63.75">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:8" ht="65" x14ac:dyDescent="0.65">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="102">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:8" ht="91" x14ac:dyDescent="0.65">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="76.5">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:8" ht="78" x14ac:dyDescent="0.65">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="1"/>
@@ -2249,18 +1387,18 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>ISNUMBER(SEARCH("PASS",$E3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>ISNUMBER(SEARCH("FAIL",$E3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2271,320 +1409,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="45" t="str">
-        <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save As fundamentals_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A10" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A11" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A18" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A19" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" ht="15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="834b100a-dc26-4ede-9885-7b3df77c2ec4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041E2C5036B18264388124B3BD1005D20" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8497cd80e96d74b5b6992e405b57094">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="834b100a-dc26-4ede-9885-7b3df77c2ec4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="059331ad37c3e30d81c2bb785f2f4871" ns2:_="">
     <xsd:import namespace="834b100a-dc26-4ede-9885-7b3df77c2ec4"/>
@@ -2750,33 +1594,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="834b100a-dc26-4ede-9885-7b3df77c2ec4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCB5079C-FEB5-44A1-9C3E-8CB7C2253050}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE7B2D37-1B85-44D0-BE20-68E758BF9D88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="834b100a-dc26-4ede-9885-7b3df77c2ec4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE7B2D37-1B85-44D0-BE20-68E758BF9D88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69AA5A3E-E7E5-4059-8EBE-8A5728AA1F8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69AA5A3E-E7E5-4059-8EBE-8A5728AA1F8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCB5079C-FEB5-44A1-9C3E-8CB7C2253050}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="834b100a-dc26-4ede-9885-7b3df77c2ec4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>